--- a/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
+++ b/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,7 +92,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
+++ b/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
@@ -291,7 +291,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,7 +1607,7 @@
         <v>43384</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3">
         <v>66</v>

--- a/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
+++ b/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
@@ -292,6 +292,18 @@
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,7 +1590,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,6 +1639,9 @@
       <c r="A3" s="1">
         <v>43385</v>
       </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
       <c r="C3" s="3">
         <f>(C2-3.3)</f>
         <v>62.7</v>
@@ -1646,6 +1661,9 @@
       <c r="A4" s="1">
         <v>43386</v>
       </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C22" si="1">(C3-3.3)</f>
         <v>59.400000000000006</v>
@@ -1665,6 +1683,9 @@
       <c r="A5" s="1">
         <v>43387</v>
       </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>56.100000000000009</v>
@@ -1683,6 +1704,9 @@
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43388</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>

--- a/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
+++ b/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
@@ -304,6 +304,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,7 +1596,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,6 +1733,9 @@
       <c r="A7" s="1">
         <v>43389</v>
       </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>
         <v>49.500000000000014</v>
@@ -1743,6 +1752,9 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43390</v>
+      </c>
+      <c r="B8">
+        <v>59</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>

--- a/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
+++ b/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
@@ -309,6 +309,24 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
@@ -1596,7 +1614,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,6 +1783,9 @@
       <c r="A9" s="1">
         <v>43391</v>
       </c>
+      <c r="B9">
+        <v>59</v>
+      </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>42.90000000000002</v>
@@ -1774,6 +1795,9 @@
       <c r="A10" s="1">
         <v>43392</v>
       </c>
+      <c r="B10">
+        <v>59</v>
+      </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>
         <v>39.600000000000023</v>
@@ -1783,6 +1807,9 @@
       <c r="A11" s="1">
         <v>43393</v>
       </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
       <c r="C11" s="3">
         <f t="shared" si="1"/>
         <v>36.300000000000026</v>
@@ -1792,6 +1819,9 @@
       <c r="A12" s="1">
         <v>43394</v>
       </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
       <c r="C12" s="3">
         <f t="shared" si="1"/>
         <v>33.000000000000028</v>
@@ -1801,6 +1831,9 @@
       <c r="A13" s="1">
         <v>43395</v>
       </c>
+      <c r="B13">
+        <v>59</v>
+      </c>
       <c r="C13" s="3">
         <f t="shared" si="1"/>
         <v>29.700000000000028</v>
@@ -1809,6 +1842,9 @@
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43396</v>
+      </c>
+      <c r="B14">
+        <v>59</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="1"/>

--- a/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
+++ b/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
@@ -328,6 +328,21 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1614,7 +1629,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,6 +1870,9 @@
       <c r="A15" s="1">
         <v>43397</v>
       </c>
+      <c r="B15">
+        <v>59</v>
+      </c>
       <c r="C15" s="3">
         <f t="shared" si="1"/>
         <v>23.100000000000026</v>
@@ -1864,6 +1882,9 @@
       <c r="A16" s="1">
         <v>43398</v>
       </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
       <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>19.800000000000026</v>
@@ -1873,6 +1894,9 @@
       <c r="A17" s="1">
         <v>43399</v>
       </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
       <c r="C17" s="3">
         <f t="shared" si="1"/>
         <v>16.500000000000025</v>
@@ -1882,6 +1906,9 @@
       <c r="A18" s="1">
         <v>43400</v>
       </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
       <c r="C18" s="3">
         <f t="shared" si="1"/>
         <v>13.200000000000024</v>
@@ -1890,6 +1917,9 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43401</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="1"/>

--- a/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
+++ b/sprints/sprint 1/Burndown Chart Sprint 1.xlsx
@@ -343,6 +343,15 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,7 +1638,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,6 +1939,9 @@
       <c r="A20" s="1">
         <v>43402</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>6.6000000000000236</v>
@@ -1939,6 +1951,9 @@
       <c r="A21" s="1">
         <v>43403</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21" s="3">
         <f t="shared" si="1"/>
         <v>3.3000000000000238</v>
@@ -1947,6 +1962,9 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43404</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="1"/>
